--- a/Bases de datos/clean/dic_arg_defun_avp.xlsx
+++ b/Bases de datos/clean/dic_arg_defun_avp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Procesamiento-R\Bases de datos\clean\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27337644-535B-42B8-A724-1EBF7AD64166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{688EF59C-B43F-48A3-B2A7-4E2681242CA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
     <t>tipo_var</t>
   </si>
   <si>
-    <t>niveles</t>
+    <t>valores</t>
   </si>
   <si>
     <t>anio_enfr</t>
@@ -70,7 +70,7 @@
     <t>Grupo de edad quinquenal</t>
   </si>
   <si>
-    <t>20 a 24, 25 a 29, 30 a 34, 35 a 39, 40 a 44, 45 a 49, 50 a 54, 55 a 59, 60 a 64, 65 a 69, 70 a 74, 75 a 79, 80+</t>
+    <t>20-24 años, 25-29 años, 30-34 años, 35-39 años, 40-44 años, 45-49 años, 50-54 años, 55-59 años, 60-64 años, 65-69 años, 70-74 años, 75-79 años, 80+ años</t>
   </si>
   <si>
     <t>grupo_edad_10</t>
@@ -79,7 +79,7 @@
     <t>Grupo de edad decenal</t>
   </si>
   <si>
-    <t>20 a 29, 30 a 39, 40 a 49, 50 a 59, 60 a 69, 70 a 79, 80+</t>
+    <t>20-29 años, 30-39 años, 40-49 años, 50-59 años, 60-69 años, 70-79 años, 80+ años</t>
   </si>
   <si>
     <t>sexo</t>
@@ -100,7 +100,7 @@
     <t>numeric</t>
   </si>
   <si>
-    <t>NA</t>
+    <t>0-Inf</t>
   </si>
   <si>
     <t>defun_mean</t>
@@ -124,7 +124,7 @@
     <t>ex</t>
   </si>
   <si>
-    <t>Esperanza de vida</t>
+    <t>Esperanza de vida a la edad x</t>
   </si>
   <si>
     <t>AVP</t>
@@ -495,7 +495,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
